--- a/data/Subset1_WithDialogActs/Video Mosiac 11th grade World Series 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosiac 11th grade World Series 2.xlsx_with_dialog_acts.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1335,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2199,12 +2199,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3783,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4871,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5055,12 +5055,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5775,12 +5775,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5955,12 +5955,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5991,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6387,12 +6387,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6495,12 +6495,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6999,12 +6999,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7071,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7179,12 +7179,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7251,12 +7251,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7323,12 +7323,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7903,12 +7903,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8155,12 +8155,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8767,12 +8767,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8915,12 +8915,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10827,12 +10827,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11979,12 +11979,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12123,12 +12123,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12771,12 +12771,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13275,12 +13275,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13527,12 +13527,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13743,12 +13743,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13959,12 +13959,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13995,12 +13995,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14319,12 +14319,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14751,12 +14751,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15111,12 +15111,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15363,12 +15363,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15579,12 +15579,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16123,12 +16123,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16447,12 +16447,12 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16735,12 +16735,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17131,12 +17131,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17275,12 +17275,12 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17635,12 +17635,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18391,12 +18391,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19003,12 +19003,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19039,12 +19039,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19867,12 +19867,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20191,12 +20191,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20339,12 +20339,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21455,12 +21455,12 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22247,12 +22247,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23403,12 +23403,12 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23475,12 +23475,12 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23547,12 +23547,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23619,12 +23619,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24159,12 +24159,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25203,12 +25203,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25239,12 +25239,12 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25419,12 +25419,12 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26031,12 +26031,12 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26247,12 +26247,12 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26427,12 +26427,12 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26499,12 +26499,12 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26535,12 +26535,12 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26607,12 +26607,12 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26859,12 +26859,12 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26931,12 +26931,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27147,12 +27147,12 @@
       <c r="H741" t="inlineStr"/>
       <c r="I741" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27219,12 +27219,12 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27435,12 +27435,12 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28047,12 +28047,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28083,12 +28083,12 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28371,12 +28371,12 @@
       <c r="H775" t="inlineStr"/>
       <c r="I775" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28479,12 +28479,12 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29451,12 +29451,12 @@
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29631,12 +29631,12 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29703,12 +29703,12 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30171,12 +30171,12 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30531,12 +30531,12 @@
       <c r="H835" t="inlineStr"/>
       <c r="I835" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30603,12 +30603,12 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30711,12 +30711,12 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31107,12 +31107,12 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31395,12 +31395,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31719,12 +31719,12 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31971,12 +31971,12 @@
       <c r="H875" t="inlineStr"/>
       <c r="I875" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32079,12 +32079,12 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32187,12 +32187,12 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32295,12 +32295,12 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32691,12 +32691,12 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33519,12 +33519,12 @@
       <c r="H918" t="inlineStr"/>
       <c r="I918" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33951,12 +33951,12 @@
       <c r="H930" t="inlineStr"/>
       <c r="I930" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33987,12 +33987,12 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34527,12 +34527,12 @@
       <c r="H946" t="inlineStr"/>
       <c r="I946" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34635,12 +34635,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35031,12 +35031,12 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35067,12 +35067,12 @@
       <c r="H961" t="inlineStr"/>
       <c r="I961" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35103,12 +35103,12 @@
       <c r="H962" t="inlineStr"/>
       <c r="I962" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36111,12 +36111,12 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36471,12 +36471,12 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36651,12 +36651,12 @@
       <c r="H1005" t="inlineStr"/>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36903,12 +36903,12 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37155,12 +37155,12 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37335,12 +37335,12 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1024" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37407,12 +37407,12 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37803,12 +37803,12 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38305,12 +38305,12 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38377,12 +38377,12 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38413,12 +38413,12 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38665,12 +38665,12 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39565,12 +39565,12 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39961,12 +39961,12 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1097" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40213,12 +40213,12 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1104" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40825,12 +40825,12 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41005,12 +41005,12 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41257,12 +41257,12 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41365,12 +41365,12 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -41401,12 +41401,12 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42589,12 +42589,12 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43093,12 +43093,12 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1184" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43345,12 +43345,12 @@
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1191" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43453,12 +43453,12 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -44245,12 +44245,12 @@
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44389,12 +44389,12 @@
       <c r="H1220" t="inlineStr"/>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44497,12 +44497,12 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44785,12 +44785,12 @@
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -45361,12 +45361,12 @@
       <c r="H1247" t="inlineStr"/>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J1247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -45433,12 +45433,12 @@
       <c r="H1249" t="inlineStr"/>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -45505,12 +45505,12 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46481,12 +46481,12 @@
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1278" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47021,12 +47021,12 @@
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47561,12 +47561,12 @@
       </c>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1308" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -47777,12 +47777,12 @@
       <c r="H1314" t="inlineStr"/>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -48281,12 +48281,12 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48353,12 +48353,12 @@
       <c r="H1330" t="inlineStr"/>
       <c r="I1330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49289,12 +49289,12 @@
       <c r="H1356" t="inlineStr"/>
       <c r="I1356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49793,12 +49793,12 @@
       </c>
       <c r="I1370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49901,12 +49901,12 @@
       </c>
       <c r="I1373" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1373" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -50009,12 +50009,12 @@
       </c>
       <c r="I1376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50229,12 +50229,12 @@
       </c>
       <c r="I1382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -50337,12 +50337,12 @@
       <c r="H1385" t="inlineStr"/>
       <c r="I1385" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1385" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50769,12 +50769,12 @@
       </c>
       <c r="I1397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -50805,12 +50805,12 @@
       </c>
       <c r="I1398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -51633,12 +51633,12 @@
       </c>
       <c r="I1421" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1421" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51741,12 +51741,12 @@
       </c>
       <c r="I1424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -51777,12 +51777,12 @@
       </c>
       <c r="I1425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -51813,12 +51813,12 @@
       </c>
       <c r="I1426" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1426" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52029,12 +52029,12 @@
       <c r="H1432" t="inlineStr"/>
       <c r="I1432" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1432" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -52177,12 +52177,12 @@
       </c>
       <c r="I1436" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1436" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52501,12 +52501,12 @@
       <c r="H1445" t="inlineStr"/>
       <c r="I1445" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1445" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52645,12 +52645,12 @@
       <c r="H1449" t="inlineStr"/>
       <c r="I1449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53005,12 +53005,12 @@
       <c r="H1459" t="inlineStr"/>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1459" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53401,12 +53401,12 @@
       </c>
       <c r="I1470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53473,12 +53473,12 @@
       </c>
       <c r="I1472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -53509,12 +53509,12 @@
       </c>
       <c r="I1473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -53545,12 +53545,12 @@
       <c r="H1474" t="inlineStr"/>
       <c r="I1474" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1474" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -53581,12 +53581,12 @@
       </c>
       <c r="I1475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -53617,12 +53617,12 @@
       </c>
       <c r="I1476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -54013,12 +54013,12 @@
       </c>
       <c r="I1487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -54121,12 +54121,12 @@
       </c>
       <c r="I1490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -54157,12 +54157,12 @@
       </c>
       <c r="I1491" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1491" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -54193,12 +54193,12 @@
       </c>
       <c r="I1492" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1492" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -54697,12 +54697,12 @@
       </c>
       <c r="I1506" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1506" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
